--- a/Washington_Wizards_2025-26_stats.xlsx
+++ b/Washington_Wizards_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,193 +2137,829 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bilal Coulibaly</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tristan Vukcevic</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cam Whitmore</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CJ McCollum</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AJ Johnson</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jamir Watkins</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Bub Carrington</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Malaki Branham</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Justin Champagnie</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tre Johnson</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sharife Cooper</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Anthony Gill</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Kyshawn George</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Alex Sarr</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Corey Kispert</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Will Riley</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alex Sarr</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18.54545454545455</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>16.81818181818182</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kyshawn George</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>15.8</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tre Johnson</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11.90909090909091</v>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bilal Coulibaly</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10.5</v>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9.75</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8.363636363636363</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.363636363636363</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bub Carrington</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.454545454545454</v>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Tristan Vukcevic</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Justin Champagnie</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Will Riley</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Jamir Watkins</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Anthony Gill</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AJ Johnson</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sharife Cooper</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2328,6 +2968,853 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bilal Coulibaly</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tristan Vukcevic</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cam Whitmore</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CJ McCollum</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AJ Johnson</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jamir Watkins</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Bub Carrington</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Malaki Branham</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Justin Champagnie</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tre Johnson</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sharife Cooper</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Anthony Gill</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Kyshawn George</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Alex Sarr</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Corey Kispert</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Will Riley</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2349,13 +3836,224 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Alex Sarr</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.54545454545455</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CJ McCollum</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.81818181818182</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kyshawn George</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tre Johnson</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11.90909090909091</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bilal Coulibaly</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cam Whitmore</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Corey Kispert</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.363636363636363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.363636363636363</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bub Carrington</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.454545454545454</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Malaki Branham</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tristan Vukcevic</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Justin Champagnie</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Will Riley</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jamir Watkins</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Anthony Gill</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AJ Johnson</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sharife Cooper</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Bub Carrington</t>
         </is>
       </c>
@@ -2527,6 +4225,428 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>Jamir Watkins</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alex Sarr</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8.363636363636363</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kyshawn George</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bilal Coulibaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bub Carrington</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.272727272727272</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.272727272727272</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tre Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.727272727272727</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CJ McCollum</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.454545454545455</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Justin Champagnie</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Corey Kispert</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.363636363636364</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cam Whitmore</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.272727272727273</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jamir Watkins</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Malaki Branham</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Will Riley</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Anthony Gill</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tristan Vukcevic</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AJ Johnson</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sharife Cooper</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CJ McCollum</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.636363636363636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kyshawn George</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tre Johnson</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.909090909090909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Corey Kispert</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.454545454545455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bub Carrington</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bilal Coulibaly</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Alex Sarr</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cam Whitmore</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Khris Middleton</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Malaki Branham</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tristan Vukcevic</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Justin Champagnie</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Anthony Gill</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Will Riley</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jamir Watkins</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sharife Cooper</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AJ Johnson</t>
         </is>
       </c>
       <c r="B19" t="n">

--- a/Washington_Wizards_2025-26_stats.xlsx
+++ b/Washington_Wizards_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,6 +1266,72 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1279,7 +1346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,6 +2179,72 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,7 +2259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2960,6 +3093,72 @@
       </c>
       <c r="T12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3807,6 +4006,72 @@
       </c>
       <c r="T12" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +4112,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.54545454545455</v>
+        <v>19.08333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -3857,7 +4122,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.81818181818182</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="4">
@@ -3867,7 +4132,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.8</v>
+        <v>15.81818181818182</v>
       </c>
     </row>
     <row r="5">
@@ -3877,7 +4142,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.90909090909091</v>
+        <v>11.91666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -3897,7 +4162,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.75</v>
+        <v>9.444444444444445</v>
       </c>
     </row>
     <row r="8">
@@ -3907,7 +4172,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>9.166666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -3917,7 +4182,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.363636363636363</v>
+        <v>8.333333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -3927,7 +4192,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.363636363636363</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11">
@@ -3937,7 +4202,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.454545454545454</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12">
@@ -3947,7 +4212,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13">
@@ -3967,7 +4232,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.8</v>
+        <v>2.545454545454545</v>
       </c>
     </row>
     <row r="15">
@@ -3977,7 +4242,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.25</v>
+        <v>2.222222222222222</v>
       </c>
     </row>
     <row r="16">
@@ -4054,21 +4319,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bub Carrington</t>
+          <t>Kyshawn George</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.727272727272728</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kyshawn George</t>
+          <t>Bub Carrington</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -4078,7 +4343,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.818181818181818</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -4088,7 +4353,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.363636363636364</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -4108,7 +4373,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.375</v>
+        <v>2.444444444444445</v>
       </c>
     </row>
     <row r="8">
@@ -4118,7 +4383,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.909090909090909</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
@@ -4128,7 +4393,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.454545454545455</v>
+        <v>1.416666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -4138,7 +4403,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.272727272727273</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">
@@ -4148,17 +4413,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AJ Johnson</t>
+          <t>Malaki Branham</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -4168,27 +4433,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>AJ Johnson</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="16">
@@ -4198,7 +4463,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="17">
@@ -4269,7 +4534,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.363636363636363</v>
+        <v>8.583333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -4279,7 +4544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>6.090909090909091</v>
       </c>
     </row>
     <row r="4">
@@ -4295,21 +4560,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bub Carrington</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.272727272727272</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Bub Carrington</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.272727272727272</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4319,7 +4584,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3.777777777777778</v>
       </c>
     </row>
     <row r="8">
@@ -4329,7 +4594,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.727272727272727</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -4339,7 +4604,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.454545454545455</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -4349,27 +4614,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.3</v>
+        <v>3.090909090909091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Cam Whitmore</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.363636363636364</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.272727272727273</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -4389,7 +4654,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="15">
@@ -4399,7 +4664,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.625</v>
+        <v>1.555555555555556</v>
       </c>
     </row>
     <row r="16">
@@ -4419,7 +4684,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="18">
@@ -4480,7 +4745,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.636363636363636</v>
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -4490,7 +4755,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.4</v>
+        <v>2.363636363636364</v>
       </c>
     </row>
     <row r="4">
@@ -4500,7 +4765,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.909090909090909</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -4510,7 +4775,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.454545454545455</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -4520,7 +4785,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.363636363636364</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -4540,43 +4805,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Cam Whitmore</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Malaki Branham</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4586,17 +4851,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Malaki Branham</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4606,11 +4871,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="16">
@@ -4620,7 +4885,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17">
@@ -4651,6 +4916,304 @@
       </c>
       <c r="B19" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>107</v>
+      </c>
+      <c r="E3" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>139</v>
+      </c>
+      <c r="E4" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>134</v>
+      </c>
+      <c r="D5" t="n">
+        <v>139</v>
+      </c>
+      <c r="E5" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>108</v>
+      </c>
+      <c r="D6" t="n">
+        <v>127</v>
+      </c>
+      <c r="E6" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>102</v>
+      </c>
+      <c r="D8" t="n">
+        <v>119</v>
+      </c>
+      <c r="E8" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>107</v>
+      </c>
+      <c r="D9" t="n">
+        <v>136</v>
+      </c>
+      <c r="E9" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D10" t="n">
+        <v>148</v>
+      </c>
+      <c r="E10" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>105</v>
+      </c>
+      <c r="D11" t="n">
+        <v>111</v>
+      </c>
+      <c r="E11" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>137</v>
+      </c>
+      <c r="E12" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>112</v>
+      </c>
+      <c r="D13" t="n">
+        <v>135</v>
+      </c>
+      <c r="E13" t="n">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
